--- a/EDA_Entrega/data/correlation_age_stroke.xlsx
+++ b/EDA_Entrega/data/correlation_age_stroke.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:G201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,10 +456,15 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>P_Value</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Regression_Coeff</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Intercept</t>
         </is>
@@ -482,12 +487,15 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-0.6556339305367672</v>
+        <v>-0.655633930536816</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>-17583142.83464494</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>1513492410.516954</v>
       </c>
     </row>
@@ -508,12 +516,15 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-0.6556339263539336</v>
+        <v>-0.655633926353954</v>
       </c>
       <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
         <v>-17583.14285926781</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>1513492.395564041</v>
       </c>
     </row>
@@ -534,12 +545,15 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-0.05687800275285557</v>
+        <v>-0.05687800275284022</v>
       </c>
       <c r="E4" t="n">
+        <v>8.507143613662723e-66</v>
+      </c>
+      <c r="F4" t="n">
         <v>-0.573672636602933</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>232.8571877647569</v>
       </c>
     </row>
@@ -560,12 +574,15 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.04919564501063786</v>
+        <v>0.04919564501065237</v>
       </c>
       <c r="E5" t="n">
+        <v>5.187503900548917e-43</v>
+      </c>
+      <c r="F5" t="n">
         <v>0.0002930533426329129</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>0.0332624787857804</v>
       </c>
     </row>
@@ -586,12 +603,15 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.05860231473592627</v>
+        <v>0.05860231473591405</v>
       </c>
       <c r="E6" t="n">
+        <v>2.513516425849273e-60</v>
+      </c>
+      <c r="F6" t="n">
         <v>0.0008827769484827838</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>0.1503017068295165</v>
       </c>
     </row>
@@ -612,12 +632,15 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-0.1122798721465522</v>
+        <v>-0.1122798721465509</v>
       </c>
       <c r="E7" t="n">
+        <v>7.905558626463111e-223</v>
+      </c>
+      <c r="F7" t="n">
         <v>-0.003484128383097308</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>4.188857432134717</v>
       </c>
     </row>
@@ -638,12 +661,15 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-0.01883821051126798</v>
+        <v>-0.01883821051126632</v>
       </c>
       <c r="E8" t="n">
+        <v>9.915061184696044e-08</v>
+      </c>
+      <c r="F8" t="n">
         <v>-0.0536169067316776</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>84.48250320564723</v>
       </c>
     </row>
@@ -664,12 +690,15 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-0.1862698318733691</v>
+        <v>-0.1862698318733439</v>
       </c>
       <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
         <v>-0.2617350652943597</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>39.07752593113841</v>
       </c>
     </row>
@@ -690,12 +719,15 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>-0.01988700739522406</v>
+        <v>-0.01988700739521352</v>
       </c>
       <c r="E10" t="n">
+        <v>2.767223817974977e-08</v>
+      </c>
+      <c r="F10" t="n">
         <v>-0.004797570557157522</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>2.386542955511887</v>
       </c>
     </row>
@@ -716,12 +748,15 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.08824087502429563</v>
+        <v>0.08824087502430067</v>
       </c>
       <c r="E11" t="n">
+        <v>1.169408566254653e-134</v>
+      </c>
+      <c r="F11" t="n">
         <v>0.001914633542991553</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>0.435583847888024</v>
       </c>
     </row>
@@ -742,12 +777,15 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.01460270395272154</v>
+        <v>0.01460270395272603</v>
       </c>
       <c r="E12" t="n">
+        <v>4.527792496236058e-05</v>
+      </c>
+      <c r="F12" t="n">
         <v>0.00215301285342371</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>3.781713477606989</v>
       </c>
     </row>
@@ -768,12 +806,15 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>-0.07939479096279072</v>
+        <v>-0.0793947909627956</v>
       </c>
       <c r="E13" t="n">
+        <v>4.371780474674109e-111</v>
+      </c>
+      <c r="F13" t="n">
         <v>-0.1115400206931646</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>30.53910198956495</v>
       </c>
     </row>
@@ -794,12 +835,15 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.05324475084349378</v>
+        <v>0.05324475084349521</v>
       </c>
       <c r="E14" t="n">
+        <v>4.32595277708204e-50</v>
+      </c>
+      <c r="F14" t="n">
         <v>0.003360494374413303</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>0.6492425164062183</v>
       </c>
     </row>
@@ -820,12 +864,15 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.07697795487507889</v>
+        <v>0.0769779548750732</v>
       </c>
       <c r="E15" t="n">
+        <v>3.353789044036871e-105</v>
+      </c>
+      <c r="F15" t="n">
         <v>0.002033178763745145</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>0.3347554252796554</v>
       </c>
     </row>
@@ -846,12 +893,15 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.2313445095227327</v>
+        <v>0.2313445095227505</v>
       </c>
       <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>0.1509994523159899</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>7.247907101166136</v>
       </c>
     </row>
@@ -872,12 +922,15 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.01509512939776196</v>
+        <v>0.01509512939776282</v>
       </c>
       <c r="E17" t="n">
+        <v>1.96913020857991e-05</v>
+      </c>
+      <c r="F17" t="n">
         <v>0.0005710707098687102</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>9.264767898208548</v>
       </c>
     </row>
@@ -898,12 +951,15 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>-0.1188250128560552</v>
+        <v>-0.118825012856051</v>
       </c>
       <c r="E18" t="n">
+        <v>1.80097493862805e-249</v>
+      </c>
+      <c r="F18" t="n">
         <v>-0.4733476036856683</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>220.472133308024</v>
       </c>
     </row>
@@ -924,12 +980,15 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>-0.02735291323060376</v>
+        <v>-0.02735291323061112</v>
       </c>
       <c r="E19" t="n">
+        <v>9.954729592856352e-15</v>
+      </c>
+      <c r="F19" t="n">
         <v>-0.008120144825947405</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>101.4026397655126</v>
       </c>
     </row>
@@ -950,12 +1009,15 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>-0.05009259433643047</v>
+        <v>-0.05009259433643112</v>
       </c>
       <c r="E20" t="n">
+        <v>1.271607864254616e-45</v>
+      </c>
+      <c r="F20" t="n">
         <v>-1.876437668989086</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>448.241531520688</v>
       </c>
     </row>
@@ -976,12 +1038,15 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.09977260493601472</v>
+        <v>0.09977260493602166</v>
       </c>
       <c r="E21" t="n">
+        <v>6.236537948294485e-176</v>
+      </c>
+      <c r="F21" t="n">
         <v>0.024926316086253</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>22.33484084517732</v>
       </c>
     </row>
@@ -1002,12 +1067,15 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.07058621310332906</v>
+        <v>0.0705862131033326</v>
       </c>
       <c r="E22" t="n">
+        <v>5.572586501231092e-89</v>
+      </c>
+      <c r="F22" t="n">
         <v>0.003910589666984096</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>0.6856223851743365</v>
       </c>
     </row>
@@ -1028,12 +1096,15 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.02765962632615728</v>
+        <v>0.0276596263261607</v>
       </c>
       <c r="E23" t="n">
+        <v>5.086775774131024e-15</v>
+      </c>
+      <c r="F23" t="n">
         <v>0.02648568341725533</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>2.7151003458669</v>
       </c>
     </row>
@@ -1054,12 +1125,15 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.2241068758731452</v>
+        <v>0.2241068758731839</v>
       </c>
       <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>0.01142438678303466</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>0.3636770498220289</v>
       </c>
     </row>
@@ -1080,12 +1154,15 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>-0.3115801842721816</v>
+        <v>-0.3115801842721265</v>
       </c>
       <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>-0.07096648449698952</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>7.346393456019912</v>
       </c>
     </row>
@@ -1106,12 +1183,15 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.09022270324924007</v>
+        <v>0.09022270324922387</v>
       </c>
       <c r="E26" t="n">
+        <v>1.04185747362658e-140</v>
+      </c>
+      <c r="F26" t="n">
         <v>0.01856265335039063</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>1.869697905445279</v>
       </c>
     </row>
@@ -1132,12 +1212,15 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>-0.02623194034062169</v>
+        <v>-0.02623194034062256</v>
       </c>
       <c r="E27" t="n">
+        <v>1.205945413413769e-13</v>
+      </c>
+      <c r="F27" t="n">
         <v>-0.4670644291311034</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>184.2155807750452</v>
       </c>
     </row>
@@ -1158,12 +1241,15 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>-0.007009105423800188</v>
+        <v>-0.007009105423801183</v>
       </c>
       <c r="E28" t="n">
+        <v>0.04768396507092596</v>
+      </c>
+      <c r="F28" t="n">
         <v>-0.02936512691678627</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>112.113586623381</v>
       </c>
     </row>
@@ -1184,12 +1270,15 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>-0.1025517414356489</v>
+        <v>-0.1025517414356501</v>
       </c>
       <c r="E29" t="n">
+        <v>3.999028658850117e-182</v>
+      </c>
+      <c r="F29" t="n">
         <v>-0.04230614094330042</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>44.66343169603375</v>
       </c>
     </row>
@@ -1210,12 +1299,15 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.02154816335047816</v>
+        <v>0.02154816335048025</v>
       </c>
       <c r="E30" t="n">
+        <v>1.081348628166106e-09</v>
+      </c>
+      <c r="F30" t="n">
         <v>0.04389103238881538</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>53.95644376750927</v>
       </c>
     </row>
@@ -1236,12 +1328,15 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>-0.1252306607281025</v>
+        <v>-0.1252306607280983</v>
       </c>
       <c r="E31" t="n">
+        <v>2.252467322524905e-271</v>
+      </c>
+      <c r="F31" t="n">
         <v>-0.01797637156312134</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>14.90224454810366</v>
       </c>
     </row>
@@ -1262,12 +1357,15 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.07029033743156682</v>
+        <v>0.07029033743157871</v>
       </c>
       <c r="E32" t="n">
+        <v>6.075424943338192e-88</v>
+      </c>
+      <c r="F32" t="n">
         <v>0.002971513085763135</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>3.989403308921546</v>
       </c>
     </row>
@@ -1288,12 +1386,15 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>-0.1160436063036981</v>
+        <v>-0.116043606303677</v>
       </c>
       <c r="E33" t="n">
+        <v>5.081883649525947e-232</v>
+      </c>
+      <c r="F33" t="n">
         <v>-0.3997194814020142</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>129.2723700244909</v>
       </c>
     </row>
@@ -1314,12 +1415,15 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>-0.1515974345263944</v>
+        <v>-0.1515974345263736</v>
       </c>
       <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>-0.1374549070669012</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
         <v>39.55215941873568</v>
       </c>
     </row>
@@ -1340,12 +1444,15 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.09630561449507896</v>
+        <v>0.09630561449504896</v>
       </c>
       <c r="E35" t="n">
+        <v>3.143277529929749e-160</v>
+      </c>
+      <c r="F35" t="n">
         <v>0.02069910410080427</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>29.07952683564234</v>
       </c>
     </row>
@@ -1366,12 +1473,15 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>-0.07936295705781289</v>
+        <v>-0.07936295705781335</v>
       </c>
       <c r="E36" t="n">
+        <v>8.287971132536541e-109</v>
+      </c>
+      <c r="F36" t="n">
         <v>-0.00959906626051262</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
         <v>33.42273861172161</v>
       </c>
     </row>
@@ -1392,12 +1502,15 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.1560056977499197</v>
+        <v>0.1560056977499034</v>
       </c>
       <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>0.100698639786511</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37" t="n">
         <v>86.29431911004677</v>
       </c>
     </row>
@@ -1418,12 +1531,15 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.1369036569504367</v>
+        <v>0.1369036569504248</v>
       </c>
       <c r="E38" t="n">
+        <v>4.940656458412465e-323</v>
+      </c>
+      <c r="F38" t="n">
         <v>0.03192358222395882</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
         <v>6.262147280165092</v>
       </c>
     </row>
@@ -1444,12 +1560,15 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.005476185797986473</v>
+        <v>0.005476185797986616</v>
       </c>
       <c r="E39" t="n">
+        <v>0.127135589037482</v>
+      </c>
+      <c r="F39" t="n">
         <v>0.0005418702684746395</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39" t="n">
         <v>11.20173147127489</v>
       </c>
     </row>
@@ -1470,12 +1589,15 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.0174033121285239</v>
+        <v>0.01740331212852208</v>
       </c>
       <c r="E40" t="n">
+        <v>8.482473873721261e-07</v>
+      </c>
+      <c r="F40" t="n">
         <v>0.004696911939063837</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40" t="n">
         <v>139.179485474544</v>
       </c>
     </row>
@@ -1496,12 +1618,15 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.08638847484486267</v>
+        <v>0.08638847484487958</v>
       </c>
       <c r="E41" t="n">
+        <v>4.227487782330398e-129</v>
+      </c>
+      <c r="F41" t="n">
         <v>0.08352818260917144</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41" t="n">
         <v>51.67857154291521</v>
       </c>
     </row>
@@ -1522,12 +1647,15 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.07777528488002018</v>
+        <v>0.0777752848800401</v>
       </c>
       <c r="E42" t="n">
+        <v>7.473200278404319e-105</v>
+      </c>
+      <c r="F42" t="n">
         <v>11.85239601849391</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42" t="n">
         <v>-503.6554726148129</v>
       </c>
     </row>
@@ -1548,12 +1676,15 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.01269721518632565</v>
+        <v>0.0126972151863243</v>
       </c>
       <c r="E43" t="n">
+        <v>0.0004045849508958147</v>
+      </c>
+      <c r="F43" t="n">
         <v>0.002955469579328059</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
         <v>13.72864293656903</v>
       </c>
     </row>
@@ -1574,12 +1705,15 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>-0.1167504805319701</v>
+        <v>-0.1167504805319861</v>
       </c>
       <c r="E44" t="n">
+        <v>1.094136239910584e-235</v>
+      </c>
+      <c r="F44" t="n">
         <v>-0.7486580901261044</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44" t="n">
         <v>280.8087807744793</v>
       </c>
     </row>
@@ -1600,12 +1734,15 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>-0.1897875971251208</v>
+        <v>-0.1897875971251588</v>
       </c>
       <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
         <v>-0.009430491791934023</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45" t="n">
         <v>5.146787703597629</v>
       </c>
     </row>
@@ -1626,12 +1763,15 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.07300602408577955</v>
+        <v>0.07300602408578913</v>
       </c>
       <c r="E46" t="n">
+        <v>4.914114733885562e-93</v>
+      </c>
+      <c r="F46" t="n">
         <v>0.01014078432793685</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46" t="n">
         <v>13.27925682336536</v>
       </c>
     </row>
@@ -1652,12 +1792,15 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>-0.06607875028750046</v>
+        <v>-0.06607875028749155</v>
       </c>
       <c r="E47" t="n">
+        <v>3.821838091274684e-78</v>
+      </c>
+      <c r="F47" t="n">
         <v>-0.6423847480511452</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47" t="n">
         <v>194.1414694809908</v>
       </c>
     </row>
@@ -1678,12 +1821,15 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>-0.1532051316913386</v>
+        <v>-0.1532051316913294</v>
       </c>
       <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
         <v>-0.006668615279454836</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48" t="n">
         <v>7.335973683953361</v>
       </c>
     </row>
@@ -1704,12 +1850,15 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.002368754229563412</v>
+        <v>0.002368754229564203</v>
       </c>
       <c r="E49" t="n">
+        <v>0.5081797916581087</v>
+      </c>
+      <c r="F49" t="n">
         <v>0.0007104808627844983</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49" t="n">
         <v>6.760860582349585</v>
       </c>
     </row>
@@ -1730,12 +1879,15 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>-0.00504483252631437</v>
+        <v>-0.00504483252631397</v>
       </c>
       <c r="E50" t="n">
+        <v>0.1553504476732012</v>
+      </c>
+      <c r="F50" t="n">
         <v>-0.003046519285466836</v>
       </c>
-      <c r="F50" t="n">
+      <c r="G50" t="n">
         <v>2.163139199358705</v>
       </c>
     </row>
@@ -1756,12 +1908,15 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.1501747782578217</v>
+        <v>0.150174778257816</v>
       </c>
       <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
         <v>0.193446634664011</v>
       </c>
-      <c r="F51" t="n">
+      <c r="G51" t="n">
         <v>17.52498034821004</v>
       </c>
     </row>
@@ -1782,12 +1937,15 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>-0.1733698151551303</v>
+        <v>-0.1733698151551464</v>
       </c>
       <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
         <v>-243.9874439771534</v>
       </c>
-      <c r="F52" t="n">
+      <c r="G52" t="n">
         <v>64694.20019012041</v>
       </c>
     </row>
@@ -1808,12 +1966,15 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.02484383173741785</v>
+        <v>0.02484383173741512</v>
       </c>
       <c r="E53" t="n">
+        <v>2.222105042567646e-12</v>
+      </c>
+      <c r="F53" t="n">
         <v>0.02188814978945394</v>
       </c>
-      <c r="F53" t="n">
+      <c r="G53" t="n">
         <v>2.629598659308464</v>
       </c>
     </row>
@@ -1834,12 +1995,15 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>-0.01789755349034488</v>
+        <v>-0.01789755349034531</v>
       </c>
       <c r="E54" t="n">
+        <v>4.265880204000448e-07</v>
+      </c>
+      <c r="F54" t="n">
         <v>-0.7816963886943763</v>
       </c>
-      <c r="F54" t="n">
+      <c r="G54" t="n">
         <v>642.317563383869</v>
       </c>
     </row>
@@ -1860,12 +2024,15 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.03778253060704562</v>
+        <v>0.03778253060704638</v>
       </c>
       <c r="E55" t="n">
+        <v>1.292132166895327e-26</v>
+      </c>
+      <c r="F55" t="n">
         <v>0.2052434833936009</v>
       </c>
-      <c r="F55" t="n">
+      <c r="G55" t="n">
         <v>-6.26957161797197</v>
       </c>
     </row>
@@ -1886,12 +2053,15 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.1017604610199255</v>
+        <v>0.1017604610199277</v>
       </c>
       <c r="E56" t="n">
+        <v>1.089567562487198e-182</v>
+      </c>
+      <c r="F56" t="n">
         <v>17.06593324721576</v>
       </c>
-      <c r="F56" t="n">
+      <c r="G56" t="n">
         <v>664.8219826749516</v>
       </c>
     </row>
@@ -1912,12 +2082,15 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>-0.166075818602222</v>
+        <v>-0.1660758186022193</v>
       </c>
       <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
         <v>-0.6328608661312211</v>
       </c>
-      <c r="F57" t="n">
+      <c r="G57" t="n">
         <v>146.7027926356844</v>
       </c>
     </row>
@@ -1938,12 +2111,15 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>-0.03909863623038368</v>
+        <v>-0.03909863623038946</v>
       </c>
       <c r="E58" t="n">
+        <v>3.834569050728908e-21</v>
+      </c>
+      <c r="F58" t="n">
         <v>-0.002229327759801262</v>
       </c>
-      <c r="F58" t="n">
+      <c r="G58" t="n">
         <v>1.087439148614612</v>
       </c>
     </row>
@@ -1964,12 +2140,15 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.04592354976108274</v>
+        <v>0.04592354976108307</v>
       </c>
       <c r="E59" t="n">
+        <v>4.456359029051902e-30</v>
+      </c>
+      <c r="F59" t="n">
         <v>0.02616173640650974</v>
       </c>
-      <c r="F59" t="n">
+      <c r="G59" t="n">
         <v>11.24405747018194</v>
       </c>
     </row>
@@ -1990,12 +2169,15 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>-0.1354693647674434</v>
+        <v>-0.1354693647674381</v>
       </c>
       <c r="E60" t="n">
+        <v>4.663476124768764e-273</v>
+      </c>
+      <c r="F60" t="n">
         <v>-134.5267351540072</v>
       </c>
-      <c r="F60" t="n">
+      <c r="G60" t="n">
         <v>45447.83971922239</v>
       </c>
     </row>
@@ -2016,12 +2198,15 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.001727858315357176</v>
+        <v>0.001727858315357253</v>
       </c>
       <c r="E61" t="n">
+        <v>0.6539771963855302</v>
+      </c>
+      <c r="F61" t="n">
         <v>0.01112204617494648</v>
       </c>
-      <c r="F61" t="n">
+      <c r="G61" t="n">
         <v>221.5845197143321</v>
       </c>
     </row>
@@ -2042,12 +2227,15 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.03781758313181572</v>
+        <v>0.03781758313181676</v>
       </c>
       <c r="E62" t="n">
+        <v>1.201109117265622e-24</v>
+      </c>
+      <c r="F62" t="n">
         <v>0.0001750333187801403</v>
       </c>
-      <c r="F62" t="n">
+      <c r="G62" t="n">
         <v>0.03856553595056872</v>
       </c>
     </row>
@@ -2068,12 +2256,15 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.04079049630691209</v>
+        <v>0.04079049630690409</v>
       </c>
       <c r="E63" t="n">
+        <v>2.118545062004562e-28</v>
+      </c>
+      <c r="F63" t="n">
         <v>0.0001270378837132521</v>
       </c>
-      <c r="F63" t="n">
+      <c r="G63" t="n">
         <v>0.02775775475296245</v>
       </c>
     </row>
@@ -2094,12 +2285,15 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0.001307400050750865</v>
+        <v>0.001307400050750477</v>
       </c>
       <c r="E64" t="n">
+        <v>0.7232482156890276</v>
+      </c>
+      <c r="F64" t="n">
         <v>2.29324319362516e-06</v>
       </c>
-      <c r="F64" t="n">
+      <c r="G64" t="n">
         <v>0.006781066851735132</v>
       </c>
     </row>
@@ -2120,12 +2314,15 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.07142387551410859</v>
+        <v>0.07142387551411089</v>
       </c>
       <c r="E65" t="n">
+        <v>1.286810602276769e-83</v>
+      </c>
+      <c r="F65" t="n">
         <v>0.001248430207362949</v>
       </c>
-      <c r="F65" t="n">
+      <c r="G65" t="n">
         <v>0.1460155410796191</v>
       </c>
     </row>
@@ -2146,12 +2343,15 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.01246818645060155</v>
+        <v>0.01246818645060234</v>
       </c>
       <c r="E66" t="n">
+        <v>0.000731656019738488</v>
+      </c>
+      <c r="F66" t="n">
         <v>2.938837275454928e-06</v>
       </c>
-      <c r="F66" t="n">
+      <c r="G66" t="n">
         <v>0.001480962092783527</v>
       </c>
     </row>
@@ -2172,12 +2372,15 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.06883094285664604</v>
+        <v>0.06883094285665135</v>
       </c>
       <c r="E67" t="n">
+        <v>9.251900477484968e-78</v>
+      </c>
+      <c r="F67" t="n">
         <v>0.001157171651939319</v>
       </c>
-      <c r="F67" t="n">
+      <c r="G67" t="n">
         <v>0.1393088488693218</v>
       </c>
     </row>
@@ -2198,12 +2401,15 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.09696853004184404</v>
+        <v>0.09696853004185042</v>
       </c>
       <c r="E68" t="n">
+        <v>8.439597981188292e-153</v>
+      </c>
+      <c r="F68" t="n">
         <v>0.001459119800382735</v>
       </c>
-      <c r="F68" t="n">
+      <c r="G68" t="n">
         <v>0.09531260452024973</v>
       </c>
     </row>
@@ -2224,12 +2430,15 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.09264309407106944</v>
+        <v>0.09264309407106548</v>
       </c>
       <c r="E69" t="n">
+        <v>1.43035267240255e-139</v>
+      </c>
+      <c r="F69" t="n">
         <v>0.001324745535480555</v>
       </c>
-      <c r="F69" t="n">
+      <c r="G69" t="n">
         <v>0.09453464396178014</v>
       </c>
     </row>
@@ -2250,12 +2459,15 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.09258717831322408</v>
+        <v>0.09258717831322483</v>
       </c>
       <c r="E70" t="n">
+        <v>2.099730896880659e-139</v>
+      </c>
+      <c r="F70" t="n">
         <v>0.0001427445269370868</v>
       </c>
-      <c r="F70" t="n">
+      <c r="G70" t="n">
         <v>-0.001931252143019068</v>
       </c>
     </row>
@@ -2276,12 +2488,15 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0.02595899565724079</v>
+        <v>0.02595899565724031</v>
       </c>
       <c r="E71" t="n">
+        <v>1.140226973880268e-12</v>
+      </c>
+      <c r="F71" t="n">
         <v>0.0003296850835178988</v>
       </c>
-      <c r="F71" t="n">
+      <c r="G71" t="n">
         <v>0.6898445608054459</v>
       </c>
     </row>
@@ -2302,12 +2517,15 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>-0.05151875411376414</v>
+        <v>-0.05151875411376274</v>
       </c>
       <c r="E72" t="n">
+        <v>2.761752480886376e-45</v>
+      </c>
+      <c r="F72" t="n">
         <v>-0.0004794556507609975</v>
       </c>
-      <c r="F72" t="n">
+      <c r="G72" t="n">
         <v>0.1892458355719923</v>
       </c>
     </row>
@@ -2328,12 +2546,15 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>-0.02948100297024597</v>
+        <v>-0.02948100297024578</v>
       </c>
       <c r="E73" t="n">
+        <v>6.571229989015294e-16</v>
+      </c>
+      <c r="F73" t="n">
         <v>-4.253751066273598e-05</v>
       </c>
-      <c r="F73" t="n">
+      <c r="G73" t="n">
         <v>0.0114739469403747</v>
       </c>
     </row>
@@ -2354,12 +2575,15 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>-0.0001343112081040314</v>
+        <v>-0.0001343112081040304</v>
       </c>
       <c r="E74" t="n">
+        <v>0.97064824875272</v>
+      </c>
+      <c r="F74" t="n">
         <v>-9.420141515908488e-07</v>
       </c>
-      <c r="F74" t="n">
+      <c r="G74" t="n">
         <v>0.9344594476749254</v>
       </c>
     </row>
@@ -2380,12 +2604,15 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>-0.01633596487940561</v>
+        <v>-0.01633596487940317</v>
       </c>
       <c r="E75" t="n">
+        <v>7.613581827233254e-06</v>
+      </c>
+      <c r="F75" t="n">
         <v>-0.0001295401523364622</v>
       </c>
-      <c r="F75" t="n">
+      <c r="G75" t="n">
         <v>0.9624763238775503</v>
       </c>
     </row>
@@ -2406,12 +2633,15 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.092553727195295</v>
+        <v>0.09255372719528586</v>
       </c>
       <c r="E76" t="n">
+        <v>1.907009753933489e-142</v>
+      </c>
+      <c r="F76" t="n">
         <v>0.0003881913749380379</v>
       </c>
-      <c r="F76" t="n">
+      <c r="G76" t="n">
         <v>0.01266932753049003</v>
       </c>
     </row>
@@ -2432,12 +2662,15 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0.008688797915505579</v>
+        <v>0.008688797915504446</v>
       </c>
       <c r="E77" t="n">
+        <v>0.01768146977166212</v>
+      </c>
+      <c r="F77" t="n">
         <v>0.00181196785795926</v>
       </c>
-      <c r="F77" t="n">
+      <c r="G77" t="n">
         <v>0.05997741277346626</v>
       </c>
     </row>
@@ -2458,12 +2691,15 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>-0.03993254704366769</v>
+        <v>-0.03993254704366733</v>
       </c>
       <c r="E78" t="n">
+        <v>1.037346041481112e-22</v>
+      </c>
+      <c r="F78" t="n">
         <v>-0.0001113406972882602</v>
       </c>
-      <c r="F78" t="n">
+      <c r="G78" t="n">
         <v>0.03514153833746949</v>
       </c>
     </row>
@@ -2484,12 +2720,15 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>-0.20756461103465</v>
+        <v>-0.2075646110346677</v>
       </c>
       <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
         <v>-0.004151607084636067</v>
       </c>
-      <c r="F79" t="n">
+      <c r="G79" t="n">
         <v>0.6296709656719996</v>
       </c>
     </row>
@@ -2510,12 +2749,15 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>-0.09544588349360737</v>
+        <v>-0.09544588349360655</v>
       </c>
       <c r="E80" t="n">
+        <v>2.285876423766439e-150</v>
+      </c>
+      <c r="F80" t="n">
         <v>-0.002373358311293272</v>
       </c>
-      <c r="F80" t="n">
+      <c r="G80" t="n">
         <v>0.5078720479393143</v>
       </c>
     </row>
@@ -2536,12 +2778,15 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>-0.05889654351622243</v>
+        <v>-0.05889654351622583</v>
       </c>
       <c r="E81" t="n">
+        <v>4.720765955722328e-58</v>
+      </c>
+      <c r="F81" t="n">
         <v>-0.0004054913729809606</v>
       </c>
-      <c r="F81" t="n">
+      <c r="G81" t="n">
         <v>0.0618168610496444</v>
       </c>
     </row>
@@ -2562,12 +2807,15 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>-0.1867416959792043</v>
+        <v>-0.1867416959791958</v>
       </c>
       <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
         <v>-0.008834071284987718</v>
       </c>
-      <c r="F82" t="n">
+      <c r="G82" t="n">
         <v>1.562388434237492</v>
       </c>
     </row>
@@ -2588,12 +2836,15 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>-0.007677971177179583</v>
+        <v>-0.007677971177179469</v>
       </c>
       <c r="E83" t="n">
+        <v>0.03628134340883106</v>
+      </c>
+      <c r="F83" t="n">
         <v>-8.291687158323587e-05</v>
       </c>
-      <c r="F83" t="n">
+      <c r="G83" t="n">
         <v>0.02413541198515988</v>
       </c>
     </row>
@@ -2614,12 +2865,15 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0.01438529136433539</v>
+        <v>0.01438529136433716</v>
       </c>
       <c r="E84" t="n">
+        <v>8.746333611173226e-05</v>
+      </c>
+      <c r="F84" t="n">
         <v>0.002844073643475199</v>
       </c>
-      <c r="F84" t="n">
+      <c r="G84" t="n">
         <v>-0.1490343476465805</v>
       </c>
     </row>
@@ -2640,12 +2894,15 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>-0.3441204513356407</v>
+        <v>-0.3441204513356234</v>
       </c>
       <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
         <v>-0.002269748008553375</v>
       </c>
-      <c r="F85" t="n">
+      <c r="G85" t="n">
         <v>0.2222962540249497</v>
       </c>
     </row>
@@ -2666,12 +2923,15 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>-0.09104068727569185</v>
+        <v>-0.091040687275698</v>
       </c>
       <c r="E86" t="n">
+        <v>2.114129078965311e-136</v>
+      </c>
+      <c r="F86" t="n">
         <v>-0.00283915495168185</v>
       </c>
-      <c r="F86" t="n">
+      <c r="G86" t="n">
         <v>0.6270855197473393</v>
       </c>
     </row>
@@ -2692,12 +2952,15 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>-0.1923965059977579</v>
+        <v>-0.1923965059977523</v>
       </c>
       <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="n">
         <v>-0.01204180028601366</v>
       </c>
-      <c r="F87" t="n">
+      <c r="G87" t="n">
         <v>2.22619205603755</v>
       </c>
     </row>
@@ -2718,12 +2981,15 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>-0.1248057836058006</v>
+        <v>-0.1248057836058071</v>
       </c>
       <c r="E88" t="n">
+        <v>7.39350825509012e-256</v>
+      </c>
+      <c r="F88" t="n">
         <v>-0.001390301478964891</v>
       </c>
-      <c r="F88" t="n">
+      <c r="G88" t="n">
         <v>0.1885046042774001</v>
       </c>
     </row>
@@ -2744,12 +3010,15 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>-0.08507171372105678</v>
+        <v>-0.08507171372107035</v>
       </c>
       <c r="E89" t="n">
+        <v>2.167332719727232e-122</v>
+      </c>
+      <c r="F89" t="n">
         <v>-0.000439477751047825</v>
       </c>
-      <c r="F89" t="n">
+      <c r="G89" t="n">
         <v>0.09926016629810866</v>
       </c>
     </row>
@@ -2770,12 +3039,15 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0.02405938535285034</v>
+        <v>0.02405938535285324</v>
       </c>
       <c r="E90" t="n">
+        <v>3.082102353967129e-11</v>
+      </c>
+      <c r="F90" t="n">
         <v>0.0002761855658995958</v>
       </c>
-      <c r="F90" t="n">
+      <c r="G90" t="n">
         <v>0.2263006992822214</v>
       </c>
     </row>
@@ -2796,12 +3068,15 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>-0.02622667209351897</v>
+        <v>-0.02622667209352264</v>
       </c>
       <c r="E91" t="n">
+        <v>4.44860236494553e-13</v>
+      </c>
+      <c r="F91" t="n">
         <v>-0.0003510988327861059</v>
       </c>
-      <c r="F91" t="n">
+      <c r="G91" t="n">
         <v>0.706856836541267</v>
       </c>
     </row>
@@ -2822,12 +3097,15 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>-0.1570896433948877</v>
+        <v>-0.1570896433949105</v>
       </c>
       <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="n">
         <v>-0.002047731037873889</v>
       </c>
-      <c r="F92" t="n">
+      <c r="G92" t="n">
         <v>0.8370772161887844</v>
       </c>
     </row>
@@ -2848,12 +3126,15 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>-0.06473633491636167</v>
+        <v>-0.06473633491635766</v>
       </c>
       <c r="E93" t="n">
+        <v>2.068834680774335e-71</v>
+      </c>
+      <c r="F93" t="n">
         <v>-0.001079864998086048</v>
       </c>
-      <c r="F93" t="n">
+      <c r="G93" t="n">
         <v>0.7237616111648935</v>
       </c>
     </row>
@@ -2874,12 +3155,15 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0.08789344971173436</v>
+        <v>0.08789344971173564</v>
       </c>
       <c r="E94" t="n">
+        <v>8.609985481391843e-126</v>
+      </c>
+      <c r="F94" t="n">
         <v>0.0002249441348819056</v>
       </c>
-      <c r="F94" t="n">
+      <c r="G94" t="n">
         <v>0.0200993541257835</v>
       </c>
     </row>
@@ -2900,12 +3184,15 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0.1096345284942409</v>
+        <v>0.1096345284942394</v>
       </c>
       <c r="E95" t="n">
+        <v>5.237847095343385e-195</v>
+      </c>
+      <c r="F95" t="n">
         <v>0.0002287289433757623</v>
       </c>
-      <c r="F95" t="n">
+      <c r="G95" t="n">
         <v>0.01364467892657661</v>
       </c>
     </row>
@@ -2926,12 +3213,15 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>0.05145929871883224</v>
+        <v>0.05145929871883199</v>
       </c>
       <c r="E96" t="n">
+        <v>3.158136168242039e-44</v>
+      </c>
+      <c r="F96" t="n">
         <v>3.001532110699192e-05</v>
       </c>
-      <c r="F96" t="n">
+      <c r="G96" t="n">
         <v>0.005704826796337345</v>
       </c>
     </row>
@@ -2952,12 +3242,15 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>-0.008619600780404364</v>
+        <v>-0.008619600780403018</v>
       </c>
       <c r="E97" t="n">
+        <v>0.05457124933147072</v>
+      </c>
+      <c r="F97" t="n">
         <v>-0.0008877728965843572</v>
       </c>
-      <c r="F97" t="n">
+      <c r="G97" t="n">
         <v>6.025635710259053</v>
       </c>
     </row>
@@ -2978,12 +3271,15 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>0.05552198766973067</v>
+        <v>0.05552198766972746</v>
       </c>
       <c r="E98" t="n">
+        <v>3.157083038460293e-37</v>
+      </c>
+      <c r="F98" t="n">
         <v>0.09960142928150863</v>
       </c>
-      <c r="F98" t="n">
+      <c r="G98" t="n">
         <v>47.76232971231065</v>
       </c>
     </row>
@@ -3004,12 +3300,15 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>-0.08718377474218138</v>
+        <v>-0.08718377474218518</v>
       </c>
       <c r="E99" t="n">
+        <v>6.199947891054733e-91</v>
+      </c>
+      <c r="F99" t="n">
         <v>-0.3495472824353156</v>
       </c>
-      <c r="F99" t="n">
+      <c r="G99" t="n">
         <v>213.484006852381</v>
       </c>
     </row>
@@ -3030,12 +3329,15 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>-0.007951559817175486</v>
+        <v>-0.0079515598171756</v>
       </c>
       <c r="E100" t="n">
+        <v>0.06431080232178275</v>
+      </c>
+      <c r="F100" t="n">
         <v>-0.003199709847337324</v>
       </c>
-      <c r="F100" t="n">
+      <c r="G100" t="n">
         <v>3.601248083695479</v>
       </c>
     </row>
@@ -3056,12 +3358,15 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>0.2359112061047575</v>
+        <v>0.2359112061048289</v>
       </c>
       <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="n">
         <v>0.01146438006103978</v>
       </c>
-      <c r="F101" t="n">
+      <c r="G101" t="n">
         <v>0.3304473890623522</v>
       </c>
     </row>
@@ -3082,12 +3387,15 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>-0.6027851725035335</v>
+        <v>-0.6027851725035327</v>
       </c>
       <c r="E102" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" t="n">
         <v>-16723045.59013124</v>
       </c>
-      <c r="F102" t="n">
+      <c r="G102" t="n">
         <v>1473488928.093561</v>
       </c>
     </row>
@@ -3108,12 +3416,15 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>-0.6027851695090554</v>
+        <v>-0.6027851695090644</v>
       </c>
       <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="n">
         <v>-16723.0456158645</v>
       </c>
-      <c r="F103" t="n">
+      <c r="G103" t="n">
         <v>1473488.913736233</v>
       </c>
     </row>
@@ -3134,12 +3445,15 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>-0.2402167647726349</v>
+        <v>-0.2402167647726406</v>
       </c>
       <c r="E104" t="n">
+        <v>2.381377515744353e-87</v>
+      </c>
+      <c r="F104" t="n">
         <v>-3.053410698183519</v>
       </c>
-      <c r="F104" t="n">
+      <c r="G104" t="n">
         <v>414.1226857460205</v>
       </c>
     </row>
@@ -3160,12 +3474,15 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>-0.06345814905916118</v>
+        <v>-0.06345814905916261</v>
       </c>
       <c r="E105" t="n">
+        <v>1.555148308331479e-06</v>
+      </c>
+      <c r="F105" t="n">
         <v>-0.0003939114887994848</v>
       </c>
-      <c r="F105" t="n">
+      <c r="G105" t="n">
         <v>0.08553496995699013</v>
       </c>
     </row>
@@ -3186,12 +3503,15 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>0.01833454619676302</v>
+        <v>0.01833454619676288</v>
       </c>
       <c r="E106" t="n">
+        <v>0.1655301575093059</v>
+      </c>
+      <c r="F106" t="n">
         <v>0.0003859611576554151</v>
       </c>
-      <c r="F106" t="n">
+      <c r="G106" t="n">
         <v>0.2054033701021647</v>
       </c>
     </row>
@@ -3212,12 +3532,15 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>-0.1087079650626262</v>
+        <v>-0.1087079650626277</v>
       </c>
       <c r="E107" t="n">
+        <v>6.33264242567328e-17</v>
+      </c>
+      <c r="F107" t="n">
         <v>-0.004000895937695759</v>
       </c>
-      <c r="F107" t="n">
+      <c r="G107" t="n">
         <v>4.159155917884304</v>
       </c>
     </row>
@@ -3238,12 +3561,15 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>-0.02954027292477669</v>
+        <v>-0.02954027292477563</v>
       </c>
       <c r="E108" t="n">
+        <v>0.02360734293178103</v>
+      </c>
+      <c r="F108" t="n">
         <v>-0.1154690356564913</v>
       </c>
-      <c r="F108" t="n">
+      <c r="G108" t="n">
         <v>93.16918648064876</v>
       </c>
     </row>
@@ -3264,12 +3590,15 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>-0.1771126266222829</v>
+        <v>-0.1771126266222826</v>
       </c>
       <c r="E109" t="n">
+        <v>2.35314796078239e-42</v>
+      </c>
+      <c r="F109" t="n">
         <v>-0.2132521393262707</v>
       </c>
-      <c r="F109" t="n">
+      <c r="G109" t="n">
         <v>34.69548834959775</v>
       </c>
     </row>
@@ -3290,12 +3619,15 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>-0.2386812075083231</v>
+        <v>-0.2386812075083244</v>
       </c>
       <c r="E110" t="n">
+        <v>6.148940341521052e-75</v>
+      </c>
+      <c r="F110" t="n">
         <v>-0.02065948944215759</v>
       </c>
-      <c r="F110" t="n">
+      <c r="G110" t="n">
         <v>3.446726386659335</v>
       </c>
     </row>
@@ -3316,12 +3648,15 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>0.1040075324126654</v>
+        <v>0.1040075324126661</v>
       </c>
       <c r="E111" t="n">
+        <v>3.090050448105138e-15</v>
+      </c>
+      <c r="F111" t="n">
         <v>0.001968340474276884</v>
       </c>
-      <c r="F111" t="n">
+      <c r="G111" t="n">
         <v>0.4321262774826296</v>
       </c>
     </row>
@@ -3342,12 +3677,15 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>0.05134144464117409</v>
+        <v>0.05134144464117414</v>
       </c>
       <c r="E112" t="n">
+        <v>0.0001021694603355795</v>
+      </c>
+      <c r="F112" t="n">
         <v>0.007591123975783018</v>
       </c>
-      <c r="F112" t="n">
+      <c r="G112" t="n">
         <v>3.502394731793869</v>
       </c>
     </row>
@@ -3368,12 +3706,15 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>-0.06948613393082964</v>
+        <v>-0.06948613393082992</v>
       </c>
       <c r="E113" t="n">
+        <v>1.118739830567152e-07</v>
+      </c>
+      <c r="F113" t="n">
         <v>-0.08665841230267848</v>
       </c>
-      <c r="F113" t="n">
+      <c r="G113" t="n">
         <v>27.89564968612821</v>
       </c>
     </row>
@@ -3394,12 +3735,15 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>-0.02909180486521468</v>
+        <v>-0.02909180486521459</v>
       </c>
       <c r="E114" t="n">
+        <v>0.02776416926267345</v>
+      </c>
+      <c r="F114" t="n">
         <v>-0.001837719708721753</v>
       </c>
-      <c r="F114" t="n">
+      <c r="G114" t="n">
         <v>1.016119126295465</v>
       </c>
     </row>
@@ -3420,12 +3764,15 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>0.1681929152860775</v>
+        <v>0.1681929152860769</v>
       </c>
       <c r="E115" t="n">
+        <v>1.850695031103256e-38</v>
+      </c>
+      <c r="F115" t="n">
         <v>0.003792264757719728</v>
       </c>
-      <c r="F115" t="n">
+      <c r="G115" t="n">
         <v>0.1597501613107465</v>
       </c>
     </row>
@@ -3446,12 +3793,15 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>0.1890517443882269</v>
+        <v>0.1890517443882272</v>
       </c>
       <c r="E116" t="n">
+        <v>1.925852242385054e-48</v>
+      </c>
+      <c r="F116" t="n">
         <v>0.1575973650776012</v>
       </c>
-      <c r="F116" t="n">
+      <c r="G116" t="n">
         <v>7.367074159197839</v>
       </c>
     </row>
@@ -3472,12 +3822,15 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>-0.0590853565686907</v>
+        <v>-0.05908535656869052</v>
       </c>
       <c r="E117" t="n">
+        <v>5.880394306115851e-06</v>
+      </c>
+      <c r="F117" t="n">
         <v>-0.002408070649647348</v>
       </c>
-      <c r="F117" t="n">
+      <c r="G117" t="n">
         <v>9.4423636199901</v>
       </c>
     </row>
@@ -3498,12 +3851,15 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>-0.07921643777929521</v>
+        <v>-0.07921643777929527</v>
       </c>
       <c r="E118" t="n">
+        <v>1.212848185016627e-09</v>
+      </c>
+      <c r="F118" t="n">
         <v>-0.3492926301181969</v>
       </c>
-      <c r="F118" t="n">
+      <c r="G118" t="n">
         <v>206.4902036590322</v>
       </c>
     </row>
@@ -3524,12 +3880,15 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>0.02154722843714103</v>
+        <v>0.02154722843714069</v>
       </c>
       <c r="E119" t="n">
+        <v>0.09851275288686119</v>
+      </c>
+      <c r="F119" t="n">
         <v>0.007456694535077248</v>
       </c>
-      <c r="F119" t="n">
+      <c r="G119" t="n">
         <v>100.0618830951601</v>
       </c>
     </row>
@@ -3550,12 +3909,15 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>-0.04846225355638619</v>
+        <v>-0.04846225355638606</v>
       </c>
       <c r="E120" t="n">
+        <v>0.0002031996379511894</v>
+      </c>
+      <c r="F120" t="n">
         <v>-1.778012272837546</v>
       </c>
-      <c r="F120" t="n">
+      <c r="G120" t="n">
         <v>477.0006553135589</v>
       </c>
     </row>
@@ -3576,12 +3938,15 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>0.1339564279607198</v>
+        <v>0.133956427960721</v>
       </c>
       <c r="E121" t="n">
+        <v>6.885099112453424e-25</v>
+      </c>
+      <c r="F121" t="n">
         <v>0.03621935876752162</v>
       </c>
-      <c r="F121" t="n">
+      <c r="G121" t="n">
         <v>21.57217430000961</v>
       </c>
     </row>
@@ -3602,12 +3967,15 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>0.04018426712009843</v>
+        <v>0.04018426712009863</v>
       </c>
       <c r="E122" t="n">
+        <v>0.002054574257378374</v>
+      </c>
+      <c r="F122" t="n">
         <v>0.003431621730258057</v>
       </c>
-      <c r="F122" t="n">
+      <c r="G122" t="n">
         <v>0.8165996165988092</v>
       </c>
     </row>
@@ -3628,12 +3996,15 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>-0.01471625028415686</v>
+        <v>-0.01471625028415687</v>
       </c>
       <c r="E123" t="n">
+        <v>0.2592015651609277</v>
+      </c>
+      <c r="F123" t="n">
         <v>-0.01762887035788785</v>
       </c>
-      <c r="F123" t="n">
+      <c r="G123" t="n">
         <v>7.153313245898041</v>
       </c>
     </row>
@@ -3654,12 +4025,15 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>0.1474800620749862</v>
+        <v>0.1474800620749874</v>
       </c>
       <c r="E124" t="n">
+        <v>5.983567195897793e-30</v>
+      </c>
+      <c r="F124" t="n">
         <v>0.01053469345097627</v>
       </c>
-      <c r="F124" t="n">
+      <c r="G124" t="n">
         <v>0.5499693770328049</v>
       </c>
     </row>
@@ -3680,12 +4054,15 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>-0.2526738643095641</v>
+        <v>-0.2526738643095661</v>
       </c>
       <c r="E125" t="n">
+        <v>4.468466870548575e-86</v>
+      </c>
+      <c r="F125" t="n">
         <v>-0.045486990502745</v>
       </c>
-      <c r="F125" t="n">
+      <c r="G125" t="n">
         <v>5.265683063612437</v>
       </c>
     </row>
@@ -3706,12 +4083,15 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>0.04972757205416743</v>
+        <v>0.04972757205416783</v>
       </c>
       <c r="E126" t="n">
+        <v>0.0001678241618507832</v>
+      </c>
+      <c r="F126" t="n">
         <v>0.01189372100564419</v>
       </c>
-      <c r="F126" t="n">
+      <c r="G126" t="n">
         <v>2.477720002379815</v>
       </c>
     </row>
@@ -3732,12 +4112,15 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>-0.007065421583917829</v>
+        <v>-0.007065421583917771</v>
       </c>
       <c r="E127" t="n">
+        <v>0.5882956426300771</v>
+      </c>
+      <c r="F127" t="n">
         <v>-0.1183940505123866</v>
       </c>
-      <c r="F127" t="n">
+      <c r="G127" t="n">
         <v>151.3474143109697</v>
       </c>
     </row>
@@ -3758,12 +4141,15 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>-0.06309393100297467</v>
+        <v>-0.06309393100297407</v>
       </c>
       <c r="E128" t="n">
+        <v>1.315627974221617e-06</v>
+      </c>
+      <c r="F128" t="n">
         <v>-0.3528440970044301</v>
       </c>
-      <c r="F128" t="n">
+      <c r="G128" t="n">
         <v>143.7215637291037</v>
       </c>
     </row>
@@ -3784,12 +4170,15 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>-0.08029144173724417</v>
+        <v>-0.08029144173724423</v>
       </c>
       <c r="E129" t="n">
+        <v>1.159307875890618e-09</v>
+      </c>
+      <c r="F129" t="n">
         <v>-0.03708582845115402</v>
       </c>
-      <c r="F129" t="n">
+      <c r="G129" t="n">
         <v>43.3857956007795</v>
       </c>
     </row>
@@ -3810,12 +4199,15 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>0.10805592217458</v>
+        <v>0.108055922174581</v>
       </c>
       <c r="E130" t="n">
+        <v>9.697855408397676e-17</v>
+      </c>
+      <c r="F130" t="n">
         <v>0.1915582592658622</v>
       </c>
-      <c r="F130" t="n">
+      <c r="G130" t="n">
         <v>40.17901474340772</v>
       </c>
     </row>
@@ -3836,12 +4228,15 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>-0.09370879058651255</v>
+        <v>-0.09370879058651195</v>
       </c>
       <c r="E131" t="n">
+        <v>1.186543900301523e-12</v>
+      </c>
+      <c r="F131" t="n">
         <v>-0.01540535190021341</v>
       </c>
-      <c r="F131" t="n">
+      <c r="G131" t="n">
         <v>14.36615094740803</v>
       </c>
     </row>
@@ -3862,12 +4257,15 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>0.08610386247313383</v>
+        <v>0.08610386247313465</v>
       </c>
       <c r="E132" t="n">
+        <v>4.006054364955892e-11</v>
+      </c>
+      <c r="F132" t="n">
         <v>0.004155426558258237</v>
       </c>
-      <c r="F132" t="n">
+      <c r="G132" t="n">
         <v>3.878612028242661</v>
       </c>
     </row>
@@ -3888,12 +4286,15 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>-0.07712300856097708</v>
+        <v>-0.07712300856097835</v>
       </c>
       <c r="E133" t="n">
+        <v>5.307727960705399e-09</v>
+      </c>
+      <c r="F133" t="n">
         <v>-0.2837550690452457</v>
       </c>
-      <c r="F133" t="n">
+      <c r="G133" t="n">
         <v>117.1553606802053</v>
       </c>
     </row>
@@ -3914,12 +4315,15 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>-0.2671538548633377</v>
+        <v>-0.2671538548633387</v>
       </c>
       <c r="E134" t="n">
+        <v>4.207733617683734e-94</v>
+      </c>
+      <c r="F134" t="n">
         <v>-0.2466915906887941</v>
       </c>
-      <c r="F134" t="n">
+      <c r="G134" t="n">
         <v>46.82722228468475</v>
       </c>
     </row>
@@ -3940,12 +4344,15 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>0.1561435347095487</v>
+        <v>0.1561435347095514</v>
       </c>
       <c r="E135" t="n">
+        <v>1.38513092334013e-32</v>
+      </c>
+      <c r="F135" t="n">
         <v>0.03467004084061939</v>
       </c>
-      <c r="F135" t="n">
+      <c r="G135" t="n">
         <v>27.72353335203471</v>
       </c>
     </row>
@@ -3966,12 +4373,15 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>-0.04317604271315712</v>
+        <v>-0.04317604271315716</v>
       </c>
       <c r="E136" t="n">
+        <v>0.001152042916510089</v>
+      </c>
+      <c r="F136" t="n">
         <v>-0.005525121178846226</v>
       </c>
-      <c r="F136" t="n">
+      <c r="G136" t="n">
         <v>33.00216536920833</v>
       </c>
     </row>
@@ -3992,12 +4402,15 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>0.1923824146447121</v>
+        <v>0.1923824146447117</v>
       </c>
       <c r="E137" t="n">
+        <v>6.863062555328075e-49</v>
+      </c>
+      <c r="F137" t="n">
         <v>0.1270651421073184</v>
       </c>
-      <c r="F137" t="n">
+      <c r="G137" t="n">
         <v>83.78807506276021</v>
       </c>
     </row>
@@ -4018,12 +4431,15 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>0.1762519925957624</v>
+        <v>0.1762519925957641</v>
       </c>
       <c r="E138" t="n">
+        <v>3.78212462585448e-41</v>
+      </c>
+      <c r="F138" t="n">
         <v>0.04397814310409805</v>
       </c>
-      <c r="F138" t="n">
+      <c r="G138" t="n">
         <v>5.346006583268966</v>
       </c>
     </row>
@@ -4044,12 +4460,15 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>0.01082510297501624</v>
+        <v>0.01082510297501612</v>
       </c>
       <c r="E139" t="n">
+        <v>0.4175294488265582</v>
+      </c>
+      <c r="F139" t="n">
         <v>0.001093368783470202</v>
       </c>
-      <c r="F139" t="n">
+      <c r="G139" t="n">
         <v>11.23087739411882</v>
       </c>
     </row>
@@ -4070,12 +4489,15 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>0.04516920116444664</v>
+        <v>0.04516920116444698</v>
       </c>
       <c r="E140" t="n">
+        <v>0.0005309050996674043</v>
+      </c>
+      <c r="F140" t="n">
         <v>0.01432081183224466</v>
       </c>
-      <c r="F140" t="n">
+      <c r="G140" t="n">
         <v>138.3081672938586</v>
       </c>
     </row>
@@ -4096,12 +4518,15 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>0.1916964511607031</v>
+        <v>0.1916964511607061</v>
       </c>
       <c r="E141" t="n">
+        <v>1.719563055859901e-48</v>
+      </c>
+      <c r="F141" t="n">
         <v>0.1922228777331565</v>
       </c>
-      <c r="F141" t="n">
+      <c r="G141" t="n">
         <v>44.37143875738423</v>
       </c>
     </row>
@@ -4122,12 +4547,15 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>0.05475166310453311</v>
+        <v>0.05475166310453336</v>
       </c>
       <c r="E142" t="n">
+        <v>3.000451039914959e-05</v>
+      </c>
+      <c r="F142" t="n">
         <v>18.27538811797997</v>
       </c>
-      <c r="F142" t="n">
+      <c r="G142" t="n">
         <v>-630.8653112479383</v>
       </c>
     </row>
@@ -4148,12 +4576,15 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>0.02022681064378882</v>
+        <v>0.02022681064378856</v>
       </c>
       <c r="E143" t="n">
+        <v>0.1300617713403958</v>
+      </c>
+      <c r="F143" t="n">
         <v>0.005055556734613244</v>
       </c>
-      <c r="F143" t="n">
+      <c r="G143" t="n">
         <v>13.70238356207692</v>
       </c>
     </row>
@@ -4174,12 +4605,15 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>-0.1673685915106967</v>
+        <v>-0.1673685915106982</v>
       </c>
       <c r="E144" t="n">
+        <v>2.948365481471471e-37</v>
+      </c>
+      <c r="F144" t="n">
         <v>-1.19408289907421</v>
       </c>
-      <c r="F144" t="n">
+      <c r="G144" t="n">
         <v>312.2861006076551</v>
       </c>
     </row>
@@ -4200,12 +4634,15 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>-0.1856491682824623</v>
+        <v>-0.1856491682824614</v>
       </c>
       <c r="E145" t="n">
+        <v>1.363341676488227e-45</v>
+      </c>
+      <c r="F145" t="n">
         <v>-0.009982528174308412</v>
       </c>
-      <c r="F145" t="n">
+      <c r="G145" t="n">
         <v>5.117812877475596</v>
       </c>
     </row>
@@ -4226,12 +4663,15 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>0.01678931012196416</v>
+        <v>0.01678931012196412</v>
       </c>
       <c r="E146" t="n">
+        <v>0.2038717758518744</v>
+      </c>
+      <c r="F146" t="n">
         <v>0.002640542849768739</v>
       </c>
-      <c r="F146" t="n">
+      <c r="G146" t="n">
         <v>14.04279195043947</v>
       </c>
     </row>
@@ -4252,12 +4692,15 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>-0.1297329407506239</v>
+        <v>-0.129732940750623</v>
       </c>
       <c r="E147" t="n">
+        <v>1.838672296554109e-23</v>
+      </c>
+      <c r="F147" t="n">
         <v>-1.440375102792876</v>
       </c>
-      <c r="F147" t="n">
+      <c r="G147" t="n">
         <v>259.6644165209823</v>
       </c>
     </row>
@@ -4278,12 +4721,15 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>-0.1872553347669469</v>
+        <v>-0.1872553347669501</v>
       </c>
       <c r="E148" t="n">
+        <v>1.524899669898646e-47</v>
+      </c>
+      <c r="F148" t="n">
         <v>-0.008690926620237856</v>
       </c>
-      <c r="F148" t="n">
+      <c r="G148" t="n">
         <v>7.482239321447109</v>
       </c>
     </row>
@@ -4304,12 +4750,15 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>-0.05244869436253187</v>
+        <v>-0.05244869436253197</v>
       </c>
       <c r="E149" t="n">
+        <v>7.19824829822066e-05</v>
+      </c>
+      <c r="F149" t="n">
         <v>-0.009999492594308594</v>
       </c>
-      <c r="F149" t="n">
+      <c r="G149" t="n">
         <v>7.585047871643702</v>
       </c>
     </row>
@@ -4330,12 +4779,15 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>0.02990480238765319</v>
+        <v>0.02990480238765359</v>
       </c>
       <c r="E150" t="n">
+        <v>0.02236160710284974</v>
+      </c>
+      <c r="F150" t="n">
         <v>0.02011570982260959</v>
       </c>
-      <c r="F150" t="n">
+      <c r="G150" t="n">
         <v>0.7203636266897282</v>
       </c>
     </row>
@@ -4356,12 +4808,15 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>0.1792596099743963</v>
+        <v>0.1792596099743981</v>
       </c>
       <c r="E151" t="n">
+        <v>2.514942660193992e-43</v>
+      </c>
+      <c r="F151" t="n">
         <v>0.2489648611845713</v>
       </c>
-      <c r="F151" t="n">
+      <c r="G151" t="n">
         <v>11.32998861238244</v>
       </c>
     </row>
@@ -4382,12 +4837,15 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>-0.2377829512578717</v>
+        <v>-0.2377829512578785</v>
       </c>
       <c r="E152" t="n">
+        <v>4.523355476714292e-76</v>
+      </c>
+      <c r="F152" t="n">
         <v>-349.7944746266421</v>
       </c>
-      <c r="F152" t="n">
+      <c r="G152" t="n">
         <v>72623.90668988338</v>
       </c>
     </row>
@@ -4408,12 +4866,15 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>0.06288577900336313</v>
+        <v>0.06288577900336512</v>
       </c>
       <c r="E153" t="n">
+        <v>1.464331093062736e-06</v>
+      </c>
+      <c r="F153" t="n">
         <v>0.02003376177110438</v>
       </c>
-      <c r="F153" t="n">
+      <c r="G153" t="n">
         <v>2.764307618742753</v>
       </c>
     </row>
@@ -4434,12 +4895,15 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>-0.06930033214960996</v>
+        <v>-0.0693003321496117</v>
       </c>
       <c r="E154" t="n">
+        <v>1.105771232831168e-07</v>
+      </c>
+      <c r="F154" t="n">
         <v>-5.57708228449994</v>
       </c>
-      <c r="F154" t="n">
+      <c r="G154" t="n">
         <v>1084.709240875684</v>
       </c>
     </row>
@@ -4460,12 +4924,15 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>-0.01281205744547086</v>
+        <v>-0.01281205744547134</v>
       </c>
       <c r="E155" t="n">
+        <v>0.3269541943581054</v>
+      </c>
+      <c r="F155" t="n">
         <v>-0.02387605777120761</v>
       </c>
-      <c r="F155" t="n">
+      <c r="G155" t="n">
         <v>9.601106908707022</v>
       </c>
     </row>
@@ -4486,12 +4953,15 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>0.05705621561494636</v>
+        <v>0.05705621561494841</v>
       </c>
       <c r="E156" t="n">
+        <v>1.249164488062379e-05</v>
+      </c>
+      <c r="F156" t="n">
         <v>15.52753896821461</v>
       </c>
-      <c r="F156" t="n">
+      <c r="G156" t="n">
         <v>1132.481909760402</v>
       </c>
     </row>
@@ -4512,12 +4982,15 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>-0.1506900255945718</v>
+        <v>-0.150690025594577</v>
       </c>
       <c r="E157" t="n">
+        <v>4.354124571661467e-31</v>
+      </c>
+      <c r="F157" t="n">
         <v>-0.5858851444225706</v>
       </c>
-      <c r="F157" t="n">
+      <c r="G157" t="n">
         <v>139.0760033847781</v>
       </c>
     </row>
@@ -4538,12 +5011,15 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>-0.002805149278545888</v>
+        <v>-0.00280514927854547</v>
       </c>
       <c r="E158" t="n">
+        <v>0.8555146507605533</v>
+      </c>
+      <c r="F158" t="n">
         <v>-0.0001163004900441404</v>
       </c>
-      <c r="F158" t="n">
+      <c r="G158" t="n">
         <v>0.9058156475332049</v>
       </c>
     </row>
@@ -4564,12 +5040,15 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>0.1311015456662182</v>
+        <v>0.131101545666218</v>
       </c>
       <c r="E159" t="n">
+        <v>3.664928939935285e-18</v>
+      </c>
+      <c r="F159" t="n">
         <v>0.06937653110830017</v>
       </c>
-      <c r="F159" t="n">
+      <c r="G159" t="n">
         <v>9.004073064594174</v>
       </c>
     </row>
@@ -4590,12 +5069,15 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>-0.1126892446770863</v>
+        <v>-0.1126892446770878</v>
       </c>
       <c r="E160" t="n">
+        <v>6.982697133407412e-14</v>
+      </c>
+      <c r="F160" t="n">
         <v>-115.3535475386334</v>
       </c>
-      <c r="F160" t="n">
+      <c r="G160" t="n">
         <v>44362.2922694109</v>
       </c>
     </row>
@@ -4616,12 +5098,15 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>-0.09916122203510164</v>
+        <v>-0.09916122203510316</v>
       </c>
       <c r="E161" t="n">
+        <v>4.564348638930373e-11</v>
+      </c>
+      <c r="F161" t="n">
         <v>-0.5187260581939358</v>
       </c>
-      <c r="F161" t="n">
+      <c r="G161" t="n">
         <v>264.0631046742824</v>
       </c>
     </row>
@@ -4642,12 +5127,15 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>-0.01504733885931379</v>
+        <v>-0.01504733885931367</v>
       </c>
       <c r="E162" t="n">
+        <v>0.2667127695016992</v>
+      </c>
+      <c r="F162" t="n">
         <v>-0.000155627467791036</v>
       </c>
-      <c r="F162" t="n">
+      <c r="G162" t="n">
         <v>0.06273389681027947</v>
       </c>
     </row>
@@ -4668,12 +5156,15 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>0.006092845145174912</v>
+        <v>0.006092845145174821</v>
       </c>
       <c r="E163" t="n">
+        <v>0.6529268431990523</v>
+      </c>
+      <c r="F163" t="n">
         <v>2.601146029243726e-05</v>
       </c>
-      <c r="F163" t="n">
+      <c r="G163" t="n">
         <v>0.03586709012107787</v>
       </c>
     </row>
@@ -4694,12 +5185,15 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>-0.02125435183040105</v>
+        <v>-0.02125435183040102</v>
       </c>
       <c r="E164" t="n">
+        <v>0.1166710057118803</v>
+      </c>
+      <c r="F164" t="n">
         <v>-0.000132252531607061</v>
       </c>
-      <c r="F164" t="n">
+      <c r="G164" t="n">
         <v>0.01686956649317682</v>
       </c>
     </row>
@@ -4720,12 +5214,15 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>0.1457924646052527</v>
+        <v>0.1457924646052524</v>
       </c>
       <c r="E165" t="n">
+        <v>2.81713856218032e-27</v>
+      </c>
+      <c r="F165" t="n">
         <v>0.002491260855239809</v>
       </c>
-      <c r="F165" t="n">
+      <c r="G165" t="n">
         <v>0.04744905974460387</v>
       </c>
     </row>
@@ -4746,12 +5243,15 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>0.05185893542317079</v>
+        <v>0.05185893542317026</v>
       </c>
       <c r="E166" t="n">
+        <v>0.000128070862596928</v>
+      </c>
+      <c r="F166" t="n">
         <v>1.520135915931997e-05</v>
       </c>
-      <c r="F166" t="n">
+      <c r="G166" t="n">
         <v>0.0004569678245335081</v>
       </c>
     </row>
@@ -4772,12 +5272,15 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>0.1460393203459583</v>
+        <v>0.146039320345958</v>
       </c>
       <c r="E167" t="n">
+        <v>2.30147656936039e-27</v>
+      </c>
+      <c r="F167" t="n">
         <v>0.002413328664763922</v>
       </c>
-      <c r="F167" t="n">
+      <c r="G167" t="n">
         <v>0.03924050616026298</v>
       </c>
     </row>
@@ -4798,12 +5301,15 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>0.0725554445382659</v>
+        <v>0.07255544453826558</v>
       </c>
       <c r="E168" t="n">
+        <v>8.222315640259782e-08</v>
+      </c>
+      <c r="F168" t="n">
         <v>0.001169562483289342</v>
       </c>
-      <c r="F168" t="n">
+      <c r="G168" t="n">
         <v>0.1216541040553593</v>
       </c>
     </row>
@@ -4824,12 +5330,15 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>0.08885339764024819</v>
+        <v>0.08885339764024845</v>
       </c>
       <c r="E169" t="n">
+        <v>5.078863576383082e-11</v>
+      </c>
+      <c r="F169" t="n">
         <v>0.001321468520783672</v>
       </c>
-      <c r="F169" t="n">
+      <c r="G169" t="n">
         <v>0.09631452083331611</v>
       </c>
     </row>
@@ -4850,12 +5359,15 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>0.1146702157657073</v>
+        <v>0.1146702157657072</v>
       </c>
       <c r="E170" t="n">
+        <v>2.095198440404078e-17</v>
+      </c>
+      <c r="F170" t="n">
         <v>0.0001163015584197537</v>
       </c>
-      <c r="F170" t="n">
+      <c r="G170" t="n">
         <v>-0.0004570120981404113</v>
       </c>
     </row>
@@ -4876,12 +5388,15 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>0.05496966602211443</v>
+        <v>0.05496966602211385</v>
       </c>
       <c r="E171" t="n">
+        <v>3.896369957603063e-05</v>
+      </c>
+      <c r="F171" t="n">
         <v>0.0006932476342845623</v>
       </c>
-      <c r="F171" t="n">
+      <c r="G171" t="n">
         <v>0.6680068718944208</v>
       </c>
     </row>
@@ -4902,12 +5417,15 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>-0.06920266385051625</v>
+        <v>-0.06920266385051542</v>
       </c>
       <c r="E172" t="n">
+        <v>2.207786476527797e-07</v>
+      </c>
+      <c r="F172" t="n">
         <v>-0.000649251207062461</v>
       </c>
-      <c r="F172" t="n">
+      <c r="G172" t="n">
         <v>0.1997882099477094</v>
       </c>
     </row>
@@ -4928,12 +5446,15 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>-0.01565091623294946</v>
+        <v>-0.01565091623294951</v>
       </c>
       <c r="E173" t="n">
+        <v>0.2418441357077305</v>
+      </c>
+      <c r="F173" t="n">
         <v>-2.85467174231194e-05</v>
       </c>
-      <c r="F173" t="n">
+      <c r="G173" t="n">
         <v>0.009964870106575539</v>
       </c>
     </row>
@@ -4954,12 +5475,15 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>0.03885548475780121</v>
+        <v>0.03885548475780099</v>
       </c>
       <c r="E174" t="n">
+        <v>0.003654172021689592</v>
+      </c>
+      <c r="F174" t="n">
         <v>0.000321781679027903</v>
       </c>
-      <c r="F174" t="n">
+      <c r="G174" t="n">
         <v>0.9051470168933876</v>
       </c>
     </row>
@@ -4980,12 +5504,15 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>0.05461040996681107</v>
+        <v>0.05461040996681085</v>
       </c>
       <c r="E175" t="n">
+        <v>4.404762920192755e-05</v>
+      </c>
+      <c r="F175" t="n">
         <v>0.0006203084203268458</v>
       </c>
-      <c r="F175" t="n">
+      <c r="G175" t="n">
         <v>0.9011570897343745</v>
       </c>
     </row>
@@ -5006,12 +5533,15 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>0.08727676084483264</v>
+        <v>0.08727676084483232</v>
       </c>
       <c r="E176" t="n">
+        <v>6.302708185760932e-11</v>
+      </c>
+      <c r="F176" t="n">
         <v>0.0002870250628792992</v>
       </c>
-      <c r="F176" t="n">
+      <c r="G176" t="n">
         <v>0.01741912112698787</v>
       </c>
     </row>
@@ -5032,12 +5562,15 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>-0.0836046094216885</v>
+        <v>-0.08360460942168882</v>
       </c>
       <c r="E177" t="n">
+        <v>4.885954493510782e-10</v>
+      </c>
+      <c r="F177" t="n">
         <v>-0.003558029205048224</v>
       </c>
-      <c r="F177" t="n">
+      <c r="G177" t="n">
         <v>0.3993140761276406</v>
       </c>
     </row>
@@ -5058,12 +5591,15 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>-0.09768024211854746</v>
+        <v>-0.09768024211854745</v>
       </c>
       <c r="E178" t="n">
+        <v>8.410727814299703e-11</v>
+      </c>
+      <c r="F178" t="n">
         <v>-0.0003406115102678499</v>
       </c>
-      <c r="F178" t="n">
+      <c r="G178" t="n">
         <v>0.05299638224562718</v>
       </c>
     </row>
@@ -5084,12 +5620,15 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>-0.2717750974572993</v>
+        <v>-0.2717750974572999</v>
       </c>
       <c r="E179" t="n">
+        <v>1.051765115590788e-93</v>
+      </c>
+      <c r="F179" t="n">
         <v>-0.005382590719632973</v>
       </c>
-      <c r="F179" t="n">
+      <c r="G179" t="n">
         <v>0.7195568317357144</v>
       </c>
     </row>
@@ -5110,12 +5649,15 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>-0.2420519078118045</v>
+        <v>-0.2420519078118033</v>
       </c>
       <c r="E180" t="n">
+        <v>1.833406912102733e-74</v>
+      </c>
+      <c r="F180" t="n">
         <v>-0.007770875901586139</v>
       </c>
-      <c r="F180" t="n">
+      <c r="G180" t="n">
         <v>0.9490793550508128</v>
       </c>
     </row>
@@ -5136,12 +5678,15 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>-0.1119658145403441</v>
+        <v>-0.1119658145403446</v>
       </c>
       <c r="E181" t="n">
+        <v>8.333678414681977e-17</v>
+      </c>
+      <c r="F181" t="n">
         <v>-0.0008905094276918069</v>
       </c>
-      <c r="F181" t="n">
+      <c r="G181" t="n">
         <v>0.1056252171518974</v>
       </c>
     </row>
@@ -5162,12 +5707,15 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>-0.2498135292147845</v>
+        <v>-0.249813529214786</v>
       </c>
       <c r="E182" t="n">
+        <v>2.387861499580918e-79</v>
+      </c>
+      <c r="F182" t="n">
         <v>-0.01109705339386485</v>
       </c>
-      <c r="F182" t="n">
+      <c r="G182" t="n">
         <v>1.696410368261814</v>
       </c>
     </row>
@@ -5188,12 +5736,15 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>-0.09434647512573817</v>
+        <v>-0.09434647512573845</v>
       </c>
       <c r="E183" t="n">
+        <v>2.21024567647844e-12</v>
+      </c>
+      <c r="F183" t="n">
         <v>-0.0003788370100518793</v>
       </c>
-      <c r="F183" t="n">
+      <c r="G183" t="n">
         <v>0.04341654309093149</v>
       </c>
     </row>
@@ -5214,12 +5765,15 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>-0.09548305177056196</v>
+        <v>-0.09548305177056261</v>
       </c>
       <c r="E184" t="n">
+        <v>1.198932069043852e-12</v>
+      </c>
+      <c r="F184" t="n">
         <v>-0.0002598789772211829</v>
       </c>
-      <c r="F184" t="n">
+      <c r="G184" t="n">
         <v>0.03270204939903465</v>
       </c>
     </row>
@@ -5240,12 +5794,15 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>-0.2948129876208255</v>
+        <v>-0.2948129876208286</v>
       </c>
       <c r="E185" t="n">
+        <v>1.113576479756003e-110</v>
+      </c>
+      <c r="F185" t="n">
         <v>-0.002482227412653349</v>
       </c>
-      <c r="F185" t="n">
+      <c r="G185" t="n">
         <v>0.2457011436967362</v>
       </c>
     </row>
@@ -5266,12 +5823,15 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>-0.07621152176590208</v>
+        <v>-0.0762115217659029</v>
       </c>
       <c r="E186" t="n">
+        <v>1.532232168668804e-08</v>
+      </c>
+      <c r="F186" t="n">
         <v>-0.002119294411413758</v>
       </c>
-      <c r="F186" t="n">
+      <c r="G186" t="n">
         <v>0.5265745570024822</v>
       </c>
     </row>
@@ -5292,12 +5852,15 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>-0.3088104410724652</v>
+        <v>-0.308810441072467</v>
       </c>
       <c r="E187" t="n">
+        <v>2.436312699766822e-122</v>
+      </c>
+      <c r="F187" t="n">
         <v>-0.02018185454021154</v>
       </c>
-      <c r="F187" t="n">
+      <c r="G187" t="n">
         <v>2.837975582100154</v>
       </c>
     </row>
@@ -5318,12 +5881,15 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>-0.2016088298143816</v>
+        <v>-0.2016088298143844</v>
       </c>
       <c r="E188" t="n">
+        <v>1.120829909544354e-51</v>
+      </c>
+      <c r="F188" t="n">
         <v>-0.002064265552343549</v>
       </c>
-      <c r="F188" t="n">
+      <c r="G188" t="n">
         <v>0.2424130200548998</v>
       </c>
     </row>
@@ -5344,12 +5910,15 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>-0.1263854413159998</v>
+        <v>-0.1263854413160005</v>
       </c>
       <c r="E189" t="n">
+        <v>1.200156823349637e-21</v>
+      </c>
+      <c r="F189" t="n">
         <v>-0.0006719035174542805</v>
       </c>
-      <c r="F189" t="n">
+      <c r="G189" t="n">
         <v>0.1173202436318384</v>
       </c>
     </row>
@@ -5370,12 +5939,15 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>-0.08921544608257923</v>
+        <v>-0.08921544608257893</v>
       </c>
       <c r="E190" t="n">
+        <v>1.657746884923248e-11</v>
+      </c>
+      <c r="F190" t="n">
         <v>-0.001163558340849851</v>
       </c>
-      <c r="F190" t="n">
+      <c r="G190" t="n">
         <v>0.3564332612434212</v>
       </c>
     </row>
@@ -5396,12 +5968,15 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>0.06853417883382264</v>
+        <v>0.06853417883382275</v>
       </c>
       <c r="E191" t="n">
+        <v>2.362930554275125e-07</v>
+      </c>
+      <c r="F191" t="n">
         <v>0.0009802196180662267</v>
       </c>
-      <c r="F191" t="n">
+      <c r="G191" t="n">
         <v>0.5846221230272195</v>
       </c>
     </row>
@@ -5422,12 +5997,15 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>-0.2014149970089229</v>
+        <v>-0.2014149970089233</v>
       </c>
       <c r="E192" t="n">
+        <v>4.936007616605932e-53</v>
+      </c>
+      <c r="F192" t="n">
         <v>-0.002807985773870471</v>
       </c>
-      <c r="F192" t="n">
+      <c r="G192" t="n">
         <v>0.8985163665521141</v>
       </c>
     </row>
@@ -5448,12 +6026,15 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>-0.06013415465999972</v>
+        <v>-0.06013415465999918</v>
       </c>
       <c r="E193" t="n">
+        <v>5.888084363606295e-06</v>
+      </c>
+      <c r="F193" t="n">
         <v>-0.00104375122690726</v>
       </c>
-      <c r="F193" t="n">
+      <c r="G193" t="n">
         <v>0.7216415919026905</v>
       </c>
     </row>
@@ -5474,12 +6055,15 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>0.1538926384060803</v>
+        <v>0.1538926384060801</v>
       </c>
       <c r="E194" t="n">
+        <v>3.082518307514214e-30</v>
+      </c>
+      <c r="F194" t="n">
         <v>0.0003905176231426632</v>
       </c>
-      <c r="F194" t="n">
+      <c r="G194" t="n">
         <v>0.006076970227056423</v>
       </c>
     </row>
@@ -5500,12 +6084,15 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>0.08926280757962228</v>
+        <v>0.0892628075796211</v>
       </c>
       <c r="E195" t="n">
+        <v>4.072465412873453e-11</v>
+      </c>
+      <c r="F195" t="n">
         <v>0.0001928836256449072</v>
       </c>
-      <c r="F195" t="n">
+      <c r="G195" t="n">
         <v>0.01624735062794252</v>
       </c>
     </row>
@@ -5526,12 +6113,15 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>0.01467130304529533</v>
+        <v>0.01467130304529545</v>
       </c>
       <c r="E196" t="n">
+        <v>0.2788502360782568</v>
+      </c>
+      <c r="F196" t="n">
         <v>9.484255674298345e-06</v>
       </c>
-      <c r="F196" t="n">
+      <c r="G196" t="n">
         <v>0.00695764718071374</v>
       </c>
     </row>
@@ -5552,12 +6142,15 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>-0.1214679511505733</v>
+        <v>-0.1214679511505725</v>
       </c>
       <c r="E197" t="n">
+        <v>5.060161128784286e-13</v>
+      </c>
+      <c r="F197" t="n">
         <v>-0.01346230972003352</v>
       </c>
-      <c r="F197" t="n">
+      <c r="G197" t="n">
         <v>7.058474497608059</v>
       </c>
     </row>
@@ -5578,12 +6171,15 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>0.1081003755434464</v>
+        <v>0.1081003755434461</v>
       </c>
       <c r="E198" t="n">
+        <v>1.28532801464605e-11</v>
+      </c>
+      <c r="F198" t="n">
         <v>0.1879852286207379</v>
       </c>
-      <c r="F198" t="n">
+      <c r="G198" t="n">
         <v>38.291789308769</v>
       </c>
     </row>
@@ -5604,12 +6200,15 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>-0.00306372803720691</v>
+        <v>-0.003063728037207069</v>
       </c>
       <c r="E199" t="n">
+        <v>0.8458749954596633</v>
+      </c>
+      <c r="F199" t="n">
         <v>-0.01471047626681662</v>
       </c>
-      <c r="F199" t="n">
+      <c r="G199" t="n">
         <v>182.1819146506425</v>
       </c>
     </row>
@@ -5630,12 +6229,15 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>-0.001088404432574274</v>
+        <v>-0.001088404432574078</v>
       </c>
       <c r="E200" t="n">
+        <v>0.9448428645999626</v>
+      </c>
+      <c r="F200" t="n">
         <v>-0.0004997585507967745</v>
       </c>
-      <c r="F200" t="n">
+      <c r="G200" t="n">
         <v>3.892013687722013</v>
       </c>
     </row>
@@ -5656,12 +6258,15 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>0.1590217960959188</v>
+        <v>0.1590217960959185</v>
       </c>
       <c r="E201" t="n">
+        <v>2.583467784310989e-24</v>
+      </c>
+      <c r="F201" t="n">
         <v>0.01228317077076937</v>
       </c>
-      <c r="F201" t="n">
+      <c r="G201" t="n">
         <v>0.4105383563444076</v>
       </c>
     </row>
